--- a/LGC_Motiv_results/nutrition/calories_scoring.xlsx
+++ b/LGC_Motiv_results/nutrition/calories_scoring.xlsx
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2078.67315</v>
+        <v>2078.74565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3923.115275</v>
+        <v>4118.615275</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3947.52545</v>
+        <v>4143.025449999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>913.795</v>
+        <v>1109.295</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3324.251</v>
+        <v>3715.251</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2187.964325</v>
+        <v>2384.016825</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5069.937025000001</v>
+        <v>7807.714524999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1584.3015125</v>
+        <v>1975.3740125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1730.762775</v>
+        <v>1730.880275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5159.14415</v>
+        <v>5354.64415</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3182.190075</v>
+        <v>3182.380075</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4641.366950000001</v>
+        <v>4641.48445</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2566.0829375</v>
+        <v>2761.7004375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2945.202424999999</v>
+        <v>3336.202424999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4686.951562499999</v>
+        <v>5861.0915625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2146.975930000001</v>
+        <v>2538.68093</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1317.175525</v>
+        <v>1512.793025</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>973.6293250000001</v>
+        <v>1169.129325</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1020.332175</v>
+        <v>1020.522175</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1415.4453375</v>
+        <v>1610.9453375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14173.143625</v>
+        <v>14564.848625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1969.75715</v>
+        <v>3142.87465</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1100.51565</v>
+        <v>2273.51565</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>5239.117475</v>
+        <v>5630.307475</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1604.1992</v>
+        <v>1800.4042</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1689.9664</v>
+        <v>2080.966400000001</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>652.6494524999999</v>
+        <v>848.2669525</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1394.281725</v>
+        <v>1589.781725</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2656.424</v>
+        <v>2656.541500000001</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>182.284025</v>
+        <v>182.989025</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3101.011</v>
+        <v>3101.446</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1092.875</v>
+        <v>1288.4475</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3184.705525</v>
+        <v>3575.705525</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1559.9742875</v>
+        <v>1755.4742875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3084.478525</v>
+        <v>3281.118525</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6173.404437499999</v>
+        <v>7346.4769375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1501.888025</v>
+        <v>1502.005525</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1521.6407625</v>
+        <v>1912.8757625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>4406.3100625</v>
+        <v>4406.4275625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2796.29885</v>
+        <v>2796.48885</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1656.159075</v>
+        <v>2047.159075</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>3650.7904125</v>
+        <v>4041.7904125</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>755.336725</v>
+        <v>759.449225</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3927.634015000001</v>
+        <v>4123.911515</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2633.6852875</v>
+        <v>3024.8027875</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2918.6300375</v>
+        <v>2919.3350375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2261.288015000001</v>
+        <v>2261.523015</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2093.2419</v>
+        <v>2093.476900000001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>2706.892025000001</v>
+        <v>3098.669525000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1777.95195</v>
+        <v>2168.95195</v>
       </c>
     </row>
     <row r="79" spans="1:2">
